--- a/ブログ一覧_単体テスト.xlsx
+++ b/ブログ一覧_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9DC008B-A2A2-47AB-AA3E-88789A055FD9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F848A9-74F0-4CBB-8153-C5F55424E76D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -270,13 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログをグリッド表示</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新たに登録されたブログの情報が降順に並んでいるか。</t>
     <rPh sb="0" eb="1">
       <t>アラ</t>
@@ -345,13 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログの表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新たなブログ情報が降順で並ぶ</t>
     <rPh sb="0" eb="1">
       <t>アラ</t>
@@ -369,6 +355,95 @@
   </si>
   <si>
     <t>blog.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限「一般」の場合、ブログ登録ボタン「＋」が非表示となっているか</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント権限「一般」でログインする</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.メニューの「ブログ」を押す</t>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「＋」が非表示</t>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
+    <rPh sb="0" eb="2">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,7 +534,26 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -750,34 +844,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A22:I25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A20:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="3" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1100,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1154,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45809</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1203,13 +1297,17 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1218,7 +1316,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1226,20 +1324,28 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1248,7 +1354,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1256,20 +1362,28 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1278,7 +1392,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1287,7 +1401,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1297,13 +1411,17 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1312,7 +1430,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1321,7 +1439,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1331,13 +1449,17 @@
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1346,7 +1468,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1355,7 +1477,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -1365,13 +1487,17 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1380,7 +1506,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1389,7 +1515,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -1399,13 +1525,17 @@
         <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1414,32 +1544,36 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1448,12 +1582,50 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ブログ一覧_単体テスト.xlsx
+++ b/ブログ一覧_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F848A9-74F0-4CBB-8153-C5F55424E76D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413713C2-9B33-4CB8-86A0-A36CBAAF61D9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -440,10 +440,6 @@
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,25 +532,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -569,6 +546,25 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -869,9 +865,9 @@
     <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="6"/>
     <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5"/>
     <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="3" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1197,7 +1193,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1569,10 +1565,10 @@
         <v>38</v>
       </c>
       <c r="G22" s="4">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2"/>
     </row>
